--- a/QUAN LY GUI XE/DoanhThuBaiXeTungNgay.xlsx
+++ b/QUAN LY GUI XE/DoanhThuBaiXeTungNgay.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24520" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DOANH THU THEO NGAY" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,19 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="25">
-  <si>
-    <t>Ngày</t>
-  </si>
-  <si>
-    <t>Thu xe máy</t>
-  </si>
-  <si>
-    <t>Thu ô tô</t>
-  </si>
-  <si>
-    <t>Trực ký</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Thu tiền ký</t>
   </si>
@@ -40,26 +27,10 @@
     <t>Ca</t>
   </si>
   <si>
-    <t>DOANH THU THEO TỪNG NGÀY</t>
-  </si>
-  <si>
     <t>Số vé thu</t>
   </si>
   <si>
-    <t>Số vé phát</t>
-  </si>
-  <si>
     <t>Chốt</t>
-  </si>
-  <si>
-    <t>Người trực</t>
-  </si>
-  <si>
-    <t>Từ …... đến ……</t>
-  </si>
-  <si>
-    <t>Từ …... đến ……
-Tổng: ......</t>
   </si>
   <si>
     <t>Vé phát</t>
@@ -136,11 +107,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -222,7 +190,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -272,64 +240,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -388,7 +298,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -396,47 +306,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -454,26 +328,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -852,279 +720,279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A8" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A8" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="17" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="12" style="17" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="17" customWidth="1"/>
-    <col min="9" max="9" width="12" style="17" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="17"/>
+    <col min="1" max="1" width="6.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="21"/>
+      <c r="A1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="F2" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-    </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" ht="34" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="F2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="4" spans="1:10" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="65.099999999999994" customHeight="1">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" ht="65.099999999999994" customHeight="1">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="65.099999999999994" customHeight="1">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="65.099999999999994" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="65" customHeight="1">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" ht="65" customHeight="1">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" ht="65" customHeight="1">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" ht="65" customHeight="1">
-      <c r="A8" s="5" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="69.75" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="10" spans="1:10" ht="69.75" customHeight="1">
-      <c r="A10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="78" customHeight="1"/>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A12" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="21"/>
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="F13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" ht="34" customHeight="1">
-      <c r="A15" s="5" t="s">
+      <c r="F13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="H15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="65.099999999999994" customHeight="1">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" ht="65.099999999999994" customHeight="1">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" ht="65.099999999999994" customHeight="1">
+      <c r="A18" s="4">
+        <v>3</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" ht="65.099999999999994" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="65" customHeight="1">
-      <c r="A16" s="6">
-        <v>1</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="65" customHeight="1">
-      <c r="A17" s="6">
-        <v>2</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" ht="65" customHeight="1">
-      <c r="A18" s="6">
-        <v>3</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="18"/>
-    </row>
-    <row r="19" spans="1:9" ht="65" customHeight="1">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="21" spans="1:9" ht="48.95" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="18"/>
-    </row>
-    <row r="21" spans="1:9" ht="49" customHeight="1">
-      <c r="A21" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1140,266 +1008,7 @@
     <mergeCell ref="E21:I21"/>
   </mergeCells>
   <pageMargins left="0.73" right="0.62" top="0.48" bottom="1" header="0.24" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="6.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="A1" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="28" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="28" customHeight="1">
-      <c r="A4" s="31"/>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="28" customHeight="1">
-      <c r="A5" s="31"/>
-      <c r="B5" s="9">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="28" customHeight="1">
-      <c r="A6" s="31"/>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="43" customHeight="1">
-      <c r="A7" s="31"/>
-      <c r="B7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" ht="28" customHeight="1">
-      <c r="A8" s="31"/>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="28" customHeight="1">
-      <c r="A9" s="31"/>
-      <c r="B9" s="9">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="28" customHeight="1">
-      <c r="A10" s="31"/>
-      <c r="B10" s="9">
-        <v>3</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="43" customHeight="1">
-      <c r="A11" s="31"/>
-      <c r="B11" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" ht="28" customHeight="1">
-      <c r="A12" s="31"/>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="28" customHeight="1">
-      <c r="A13" s="31"/>
-      <c r="B13" s="9">
-        <v>2</v>
-      </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="28" customHeight="1">
-      <c r="A14" s="31"/>
-      <c r="B14" s="9">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="43" customHeight="1">
-      <c r="A15" s="31"/>
-      <c r="B15" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
